--- a/data_year/zb/建筑业/建设工程监理企业和人员数/从业人员.xlsx
+++ b/data_year/zb/建筑业/建设工程监理企业和人员数/从业人员.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI17"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,1543 +608,1243 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>709</v>
+      </c>
+      <c r="C2" t="n">
+        <v>389</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7917</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3731</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1145</v>
+      </c>
+      <c r="G2" t="n">
+        <v>821</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7979</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4820</v>
+      </c>
+      <c r="J2" t="n">
+        <v>24746</v>
+      </c>
+      <c r="K2" t="n">
+        <v>14773</v>
+      </c>
+      <c r="L2" t="n">
+        <v>38097</v>
+      </c>
+      <c r="M2" t="n">
+        <v>20481</v>
+      </c>
       <c r="N2" t="n">
-        <v>433193</v>
+        <v>675397</v>
       </c>
       <c r="O2" t="n">
-        <v>263587</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
+        <v>372851</v>
+      </c>
+      <c r="P2" t="n">
+        <v>455811</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>254390</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1284</v>
+      </c>
+      <c r="S2" t="n">
+        <v>606</v>
+      </c>
+      <c r="T2" t="n">
+        <v>14523</v>
+      </c>
+      <c r="U2" t="n">
+        <v>7975</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1492</v>
+      </c>
+      <c r="W2" t="n">
+        <v>694</v>
+      </c>
+      <c r="X2" t="n">
+        <v>36503</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>17155</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>7564</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>4671</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41502</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>21567</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>705</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>310</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>3938</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>984</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>31482</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>19484</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1831</v>
+      </c>
+      <c r="C3" t="n">
+        <v>947</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7874</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3826</v>
+      </c>
+      <c r="F3" t="n">
+        <v>972</v>
+      </c>
+      <c r="G3" t="n">
+        <v>689</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8736</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5039</v>
+      </c>
+      <c r="J3" t="n">
+        <v>26794</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15331</v>
+      </c>
+      <c r="L3" t="n">
+        <v>40452</v>
+      </c>
+      <c r="M3" t="n">
+        <v>21686</v>
+      </c>
       <c r="N3" t="n">
-        <v>483412</v>
+        <v>763454</v>
       </c>
       <c r="O3" t="n">
-        <v>84223</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
+        <v>415271</v>
+      </c>
+      <c r="P3" t="n">
+        <v>509328</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>281323</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1969</v>
+      </c>
+      <c r="S3" t="n">
+        <v>759</v>
+      </c>
+      <c r="T3" t="n">
+        <v>18738</v>
+      </c>
+      <c r="U3" t="n">
+        <v>10057</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1399</v>
+      </c>
+      <c r="W3" t="n">
+        <v>662</v>
+      </c>
+      <c r="X3" t="n">
+        <v>43812</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>20375</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>8326</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>4938</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>62942</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>32774</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1011</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>462</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>5390</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1225</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>23880</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15178</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>73</v>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
       <c r="D4" t="n">
-        <v>8555</v>
+        <v>7083</v>
       </c>
       <c r="E4" t="n">
-        <v>4077</v>
+        <v>3649</v>
       </c>
       <c r="F4" t="n">
-        <v>2253</v>
+        <v>848</v>
       </c>
       <c r="G4" t="n">
-        <v>1337</v>
+        <v>593</v>
       </c>
       <c r="H4" t="n">
-        <v>6443</v>
+        <v>8391</v>
       </c>
       <c r="I4" t="n">
-        <v>4229</v>
+        <v>4864</v>
       </c>
       <c r="J4" t="n">
-        <v>19490</v>
+        <v>29900</v>
       </c>
       <c r="K4" t="n">
-        <v>11770</v>
+        <v>16818</v>
       </c>
       <c r="L4" t="n">
-        <v>25036</v>
+        <v>43033</v>
       </c>
       <c r="M4" t="n">
-        <v>14619</v>
+        <v>23587</v>
       </c>
       <c r="N4" t="n">
-        <v>514549</v>
+        <v>822042</v>
       </c>
       <c r="O4" t="n">
-        <v>303470</v>
+        <v>440339</v>
       </c>
       <c r="P4" t="n">
-        <v>372452</v>
+        <v>546393</v>
       </c>
       <c r="Q4" t="n">
-        <v>224297</v>
+        <v>298289</v>
       </c>
       <c r="R4" t="n">
-        <v>700</v>
+        <v>1983</v>
       </c>
       <c r="S4" t="n">
-        <v>358</v>
+        <v>779</v>
       </c>
       <c r="T4" t="n">
-        <v>26278</v>
+        <v>20702</v>
       </c>
       <c r="U4" t="n">
-        <v>10682</v>
+        <v>11412</v>
       </c>
       <c r="V4" t="n">
-        <v>2701</v>
+        <v>1474</v>
       </c>
       <c r="W4" t="n">
-        <v>1364</v>
+        <v>660</v>
       </c>
       <c r="X4" t="n">
-        <v>28152</v>
+        <v>47325</v>
       </c>
       <c r="Y4" t="n">
-        <v>15551</v>
+        <v>21580</v>
       </c>
       <c r="Z4" t="n">
-        <v>4323</v>
+        <v>9448</v>
       </c>
       <c r="AA4" t="n">
-        <v>2922</v>
-      </c>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
+        <v>5379</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>70073</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>35346</v>
+      </c>
       <c r="AD4" t="n">
-        <v>560</v>
+        <v>1031</v>
       </c>
       <c r="AE4" t="n">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="AF4" t="n">
-        <v>2860</v>
+        <v>9402</v>
       </c>
       <c r="AG4" t="n">
-        <v>1174</v>
+        <v>1415</v>
       </c>
       <c r="AH4" t="n">
-        <v>14746</v>
+        <v>24883</v>
       </c>
       <c r="AI4" t="n">
-        <v>10727</v>
+        <v>15577</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>24</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7284</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3498</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2617</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1609</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7049</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4380</v>
-      </c>
-      <c r="J5" t="n">
-        <v>21254</v>
-      </c>
-      <c r="K5" t="n">
-        <v>12924</v>
-      </c>
-      <c r="L5" t="n">
-        <v>27411</v>
-      </c>
-      <c r="M5" t="n">
-        <v>15615</v>
-      </c>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>542526</v>
-      </c>
-      <c r="O5" t="n">
-        <v>317516</v>
-      </c>
-      <c r="P5" t="n">
-        <v>387530</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>228466</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1411</v>
-      </c>
-      <c r="S5" t="n">
-        <v>624</v>
-      </c>
-      <c r="T5" t="n">
-        <v>15333</v>
-      </c>
-      <c r="U5" t="n">
-        <v>9009</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2815</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1464</v>
-      </c>
-      <c r="X5" t="n">
-        <v>29068</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>15143</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>5102</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>3314</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>10914</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>6967</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>490</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>308</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>4991</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1329</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>19233</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>12854</v>
-      </c>
+        <v>890620</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>474</v>
+        <v>1197</v>
       </c>
       <c r="C6" t="n">
-        <v>259</v>
+        <v>684</v>
       </c>
       <c r="D6" t="n">
-        <v>6546</v>
+        <v>9366</v>
       </c>
       <c r="E6" t="n">
-        <v>3277</v>
+        <v>4985</v>
       </c>
       <c r="F6" t="n">
-        <v>1233</v>
+        <v>841</v>
       </c>
       <c r="G6" t="n">
-        <v>671</v>
+        <v>637</v>
       </c>
       <c r="H6" t="n">
-        <v>6954</v>
+        <v>5684</v>
       </c>
       <c r="I6" t="n">
-        <v>4232</v>
+        <v>3186</v>
       </c>
       <c r="J6" t="n">
-        <v>21762</v>
+        <v>33956</v>
       </c>
       <c r="K6" t="n">
-        <v>13051</v>
+        <v>19406</v>
       </c>
       <c r="L6" t="n">
-        <v>30899</v>
+        <v>53667</v>
       </c>
       <c r="M6" t="n">
-        <v>16904</v>
+        <v>28118</v>
       </c>
       <c r="N6" t="n">
-        <v>581973</v>
+        <v>941909</v>
       </c>
       <c r="O6" t="n">
-        <v>332218</v>
+        <v>491519</v>
       </c>
       <c r="P6" t="n">
-        <v>396710</v>
+        <v>611981</v>
       </c>
       <c r="Q6" t="n">
-        <v>228594</v>
+        <v>325772</v>
       </c>
       <c r="R6" t="n">
-        <v>1256</v>
+        <v>1521</v>
       </c>
       <c r="S6" t="n">
-        <v>578</v>
+        <v>623</v>
       </c>
       <c r="T6" t="n">
-        <v>15963</v>
+        <v>19919</v>
       </c>
       <c r="U6" t="n">
-        <v>8417</v>
+        <v>10661</v>
       </c>
       <c r="V6" t="n">
-        <v>1896</v>
+        <v>1360</v>
       </c>
       <c r="W6" t="n">
-        <v>909</v>
+        <v>656</v>
       </c>
       <c r="X6" t="n">
-        <v>33328</v>
+        <v>54219</v>
       </c>
       <c r="Y6" t="n">
-        <v>16544</v>
+        <v>22239</v>
       </c>
       <c r="Z6" t="n">
-        <v>5414</v>
+        <v>9421</v>
       </c>
       <c r="AA6" t="n">
-        <v>3451</v>
+        <v>5006</v>
       </c>
       <c r="AB6" t="n">
-        <v>30524</v>
+        <v>101476</v>
       </c>
       <c r="AC6" t="n">
-        <v>18323</v>
+        <v>50951</v>
       </c>
       <c r="AD6" t="n">
-        <v>928</v>
+        <v>974</v>
       </c>
       <c r="AE6" t="n">
-        <v>427</v>
+        <v>525</v>
       </c>
       <c r="AF6" t="n">
-        <v>3539</v>
+        <v>10695</v>
       </c>
       <c r="AG6" t="n">
-        <v>961</v>
+        <v>1800</v>
       </c>
       <c r="AH6" t="n">
-        <v>24547</v>
+        <v>25632</v>
       </c>
       <c r="AI6" t="n">
-        <v>15620</v>
+        <v>16270</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>709</v>
+        <v>377</v>
       </c>
       <c r="C7" t="n">
-        <v>389</v>
+        <v>200</v>
       </c>
       <c r="D7" t="n">
-        <v>7917</v>
+        <v>6402</v>
       </c>
       <c r="E7" t="n">
-        <v>3731</v>
+        <v>3210</v>
       </c>
       <c r="F7" t="n">
-        <v>1145</v>
+        <v>1096</v>
       </c>
       <c r="G7" t="n">
-        <v>821</v>
+        <v>747</v>
       </c>
       <c r="H7" t="n">
-        <v>7979</v>
+        <v>6003</v>
       </c>
       <c r="I7" t="n">
-        <v>4820</v>
+        <v>3500</v>
       </c>
       <c r="J7" t="n">
-        <v>24746</v>
+        <v>29916</v>
       </c>
       <c r="K7" t="n">
-        <v>14773</v>
+        <v>17600</v>
       </c>
       <c r="L7" t="n">
-        <v>38097</v>
+        <v>52163</v>
       </c>
       <c r="M7" t="n">
-        <v>20481</v>
+        <v>26529</v>
       </c>
       <c r="N7" t="n">
-        <v>675397</v>
+        <v>946466</v>
       </c>
       <c r="O7" t="n">
-        <v>372851</v>
+        <v>482056</v>
       </c>
       <c r="P7" t="n">
-        <v>455811</v>
+        <v>629577</v>
       </c>
       <c r="Q7" t="n">
-        <v>254390</v>
+        <v>323041</v>
       </c>
       <c r="R7" t="n">
-        <v>1284</v>
+        <v>1388</v>
       </c>
       <c r="S7" t="n">
-        <v>606</v>
+        <v>711</v>
       </c>
       <c r="T7" t="n">
-        <v>14523</v>
+        <v>16333</v>
       </c>
       <c r="U7" t="n">
-        <v>7975</v>
+        <v>8878</v>
       </c>
       <c r="V7" t="n">
-        <v>1492</v>
+        <v>1216</v>
       </c>
       <c r="W7" t="n">
-        <v>694</v>
+        <v>630</v>
       </c>
       <c r="X7" t="n">
-        <v>36503</v>
+        <v>54878</v>
       </c>
       <c r="Y7" t="n">
-        <v>17155</v>
+        <v>23387</v>
       </c>
       <c r="Z7" t="n">
-        <v>7564</v>
+        <v>6904</v>
       </c>
       <c r="AA7" t="n">
-        <v>4671</v>
+        <v>3348</v>
       </c>
       <c r="AB7" t="n">
-        <v>41502</v>
+        <v>101985</v>
       </c>
       <c r="AC7" t="n">
-        <v>21567</v>
+        <v>50921</v>
       </c>
       <c r="AD7" t="n">
-        <v>705</v>
+        <v>1201</v>
       </c>
       <c r="AE7" t="n">
-        <v>310</v>
+        <v>725</v>
       </c>
       <c r="AF7" t="n">
-        <v>3938</v>
+        <v>8087</v>
       </c>
       <c r="AG7" t="n">
-        <v>984</v>
+        <v>1230</v>
       </c>
       <c r="AH7" t="n">
-        <v>31482</v>
+        <v>28940</v>
       </c>
       <c r="AI7" t="n">
-        <v>19484</v>
+        <v>17399</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1831</v>
+        <v>162</v>
       </c>
       <c r="C8" t="n">
-        <v>947</v>
+        <v>68</v>
       </c>
       <c r="D8" t="n">
-        <v>7874</v>
+        <v>5502</v>
       </c>
       <c r="E8" t="n">
-        <v>3826</v>
+        <v>3082</v>
       </c>
       <c r="F8" t="n">
-        <v>972</v>
+        <v>1023</v>
       </c>
       <c r="G8" t="n">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H8" t="n">
-        <v>8736</v>
+        <v>4211</v>
       </c>
       <c r="I8" t="n">
-        <v>5039</v>
+        <v>2864</v>
       </c>
       <c r="J8" t="n">
-        <v>26794</v>
+        <v>32662</v>
       </c>
       <c r="K8" t="n">
-        <v>15331</v>
+        <v>19345</v>
       </c>
       <c r="L8" t="n">
-        <v>40452</v>
+        <v>62572</v>
       </c>
       <c r="M8" t="n">
-        <v>21686</v>
+        <v>31237</v>
       </c>
       <c r="N8" t="n">
-        <v>763454</v>
+        <v>1000489</v>
       </c>
       <c r="O8" t="n">
-        <v>415271</v>
+        <v>501643</v>
       </c>
       <c r="P8" t="n">
-        <v>509328</v>
+        <v>644336</v>
       </c>
       <c r="Q8" t="n">
-        <v>281323</v>
+        <v>322362</v>
       </c>
       <c r="R8" t="n">
-        <v>1969</v>
+        <v>1627</v>
       </c>
       <c r="S8" t="n">
-        <v>759</v>
+        <v>720</v>
       </c>
       <c r="T8" t="n">
-        <v>18738</v>
+        <v>24844</v>
       </c>
       <c r="U8" t="n">
-        <v>10057</v>
+        <v>12650</v>
       </c>
       <c r="V8" t="n">
-        <v>1399</v>
+        <v>1065</v>
       </c>
       <c r="W8" t="n">
-        <v>662</v>
+        <v>570</v>
       </c>
       <c r="X8" t="n">
-        <v>43812</v>
+        <v>57442</v>
       </c>
       <c r="Y8" t="n">
-        <v>20375</v>
+        <v>23978</v>
       </c>
       <c r="Z8" t="n">
-        <v>8326</v>
+        <v>5522</v>
       </c>
       <c r="AA8" t="n">
-        <v>4938</v>
+        <v>2993</v>
       </c>
       <c r="AB8" t="n">
-        <v>62942</v>
+        <v>120714</v>
       </c>
       <c r="AC8" t="n">
-        <v>32774</v>
+        <v>60253</v>
       </c>
       <c r="AD8" t="n">
-        <v>1011</v>
+        <v>1412</v>
       </c>
       <c r="AE8" t="n">
-        <v>462</v>
+        <v>714</v>
       </c>
       <c r="AF8" t="n">
-        <v>5390</v>
+        <v>6073</v>
       </c>
       <c r="AG8" t="n">
-        <v>1225</v>
+        <v>1238</v>
       </c>
       <c r="AH8" t="n">
-        <v>23880</v>
+        <v>31322</v>
       </c>
       <c r="AI8" t="n">
-        <v>15178</v>
+        <v>18881</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>73</v>
       </c>
       <c r="C9" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>7083</v>
+        <v>6821</v>
       </c>
       <c r="E9" t="n">
-        <v>3649</v>
+        <v>3379</v>
       </c>
       <c r="F9" t="n">
-        <v>848</v>
+        <v>881</v>
       </c>
       <c r="G9" t="n">
-        <v>593</v>
+        <v>555</v>
       </c>
       <c r="H9" t="n">
-        <v>8391</v>
+        <v>4603</v>
       </c>
       <c r="I9" t="n">
-        <v>4864</v>
+        <v>2886</v>
       </c>
       <c r="J9" t="n">
-        <v>29900</v>
+        <v>31061</v>
       </c>
       <c r="K9" t="n">
-        <v>16818</v>
+        <v>18414</v>
       </c>
       <c r="L9" t="n">
-        <v>43033</v>
+        <v>75820</v>
       </c>
       <c r="M9" t="n">
-        <v>23587</v>
+        <v>37674</v>
       </c>
       <c r="N9" t="n">
-        <v>822042</v>
+        <v>1071780</v>
       </c>
       <c r="O9" t="n">
-        <v>440339</v>
+        <v>536227</v>
       </c>
       <c r="P9" t="n">
-        <v>546393</v>
+        <v>675930</v>
       </c>
       <c r="Q9" t="n">
-        <v>298289</v>
+        <v>341139</v>
       </c>
       <c r="R9" t="n">
-        <v>1983</v>
+        <v>1646</v>
       </c>
       <c r="S9" t="n">
-        <v>779</v>
+        <v>656</v>
       </c>
       <c r="T9" t="n">
-        <v>20702</v>
+        <v>25693</v>
       </c>
       <c r="U9" t="n">
-        <v>11412</v>
+        <v>12318</v>
       </c>
       <c r="V9" t="n">
-        <v>1474</v>
+        <v>1044</v>
       </c>
       <c r="W9" t="n">
-        <v>660</v>
+        <v>597</v>
       </c>
       <c r="X9" t="n">
-        <v>47325</v>
+        <v>63237</v>
       </c>
       <c r="Y9" t="n">
-        <v>21580</v>
+        <v>27182</v>
       </c>
       <c r="Z9" t="n">
-        <v>9448</v>
+        <v>6313</v>
       </c>
       <c r="AA9" t="n">
-        <v>5379</v>
+        <v>3516</v>
       </c>
       <c r="AB9" t="n">
-        <v>70073</v>
+        <v>133605</v>
       </c>
       <c r="AC9" t="n">
-        <v>35346</v>
+        <v>65747</v>
       </c>
       <c r="AD9" t="n">
-        <v>1031</v>
+        <v>1344</v>
       </c>
       <c r="AE9" t="n">
-        <v>354</v>
+        <v>622</v>
       </c>
       <c r="AF9" t="n">
-        <v>9402</v>
+        <v>13106</v>
       </c>
       <c r="AG9" t="n">
-        <v>1415</v>
+        <v>2679</v>
       </c>
       <c r="AH9" t="n">
-        <v>24883</v>
+        <v>30603</v>
       </c>
       <c r="AI9" t="n">
-        <v>15577</v>
+        <v>18820</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>284</v>
+      </c>
+      <c r="C10" t="n">
+        <v>177</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6861</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3063</v>
+      </c>
+      <c r="F10" t="n">
+        <v>912</v>
+      </c>
+      <c r="G10" t="n">
+        <v>502</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5886</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3381</v>
+      </c>
+      <c r="J10" t="n">
+        <v>35741</v>
+      </c>
+      <c r="K10" t="n">
+        <v>20449</v>
+      </c>
+      <c r="L10" t="n">
+        <v>82808</v>
+      </c>
+      <c r="M10" t="n">
+        <v>39668</v>
+      </c>
       <c r="N10" t="n">
-        <v>890620</v>
-      </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
+        <v>1169275</v>
+      </c>
+      <c r="O10" t="n">
+        <v>547718</v>
+      </c>
+      <c r="P10" t="n">
+        <v>721406</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>335859</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1167</v>
+      </c>
+      <c r="S10" t="n">
+        <v>365</v>
+      </c>
+      <c r="T10" t="n">
+        <v>36129</v>
+      </c>
+      <c r="U10" t="n">
+        <v>17881</v>
+      </c>
+      <c r="V10" t="n">
+        <v>802</v>
+      </c>
+      <c r="W10" t="n">
+        <v>527</v>
+      </c>
+      <c r="X10" t="n">
+        <v>68554</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>27836</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>11169</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3285</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>154830</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>74504</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1280</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>606</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>15748</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>3760</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>25698</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>15855</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1197</v>
+        <v>77</v>
       </c>
       <c r="C11" t="n">
-        <v>684</v>
+        <v>45</v>
       </c>
       <c r="D11" t="n">
-        <v>9366</v>
+        <v>9183</v>
       </c>
       <c r="E11" t="n">
-        <v>4985</v>
+        <v>4518</v>
       </c>
       <c r="F11" t="n">
-        <v>841</v>
+        <v>997</v>
       </c>
       <c r="G11" t="n">
-        <v>637</v>
+        <v>548</v>
       </c>
       <c r="H11" t="n">
-        <v>5684</v>
+        <v>5368</v>
       </c>
       <c r="I11" t="n">
-        <v>3186</v>
+        <v>3392</v>
       </c>
       <c r="J11" t="n">
-        <v>33956</v>
+        <v>38105</v>
       </c>
       <c r="K11" t="n">
-        <v>19406</v>
+        <v>21305</v>
       </c>
       <c r="L11" t="n">
-        <v>53667</v>
+        <v>98094</v>
       </c>
       <c r="M11" t="n">
-        <v>28118</v>
+        <v>44028</v>
       </c>
       <c r="N11" t="n">
-        <v>941909</v>
+        <v>1295721</v>
       </c>
       <c r="O11" t="n">
-        <v>491519</v>
+        <v>567725</v>
       </c>
       <c r="P11" t="n">
-        <v>611981</v>
+        <v>789717</v>
       </c>
       <c r="Q11" t="n">
-        <v>325772</v>
+        <v>335026</v>
       </c>
       <c r="R11" t="n">
-        <v>1521</v>
+        <v>638</v>
       </c>
       <c r="S11" t="n">
-        <v>623</v>
+        <v>339</v>
       </c>
       <c r="T11" t="n">
-        <v>19919</v>
+        <v>34523</v>
       </c>
       <c r="U11" t="n">
-        <v>10661</v>
+        <v>18279</v>
       </c>
       <c r="V11" t="n">
-        <v>1360</v>
+        <v>1139</v>
       </c>
       <c r="W11" t="n">
-        <v>656</v>
+        <v>629</v>
       </c>
       <c r="X11" t="n">
-        <v>54219</v>
+        <v>76249</v>
       </c>
       <c r="Y11" t="n">
-        <v>22239</v>
+        <v>32361</v>
       </c>
       <c r="Z11" t="n">
-        <v>9421</v>
+        <v>13701</v>
       </c>
       <c r="AA11" t="n">
-        <v>5006</v>
+        <v>3991</v>
       </c>
       <c r="AB11" t="n">
-        <v>101476</v>
+        <v>180585</v>
       </c>
       <c r="AC11" t="n">
-        <v>50951</v>
+        <v>81797</v>
       </c>
       <c r="AD11" t="n">
-        <v>974</v>
+        <v>1519</v>
       </c>
       <c r="AE11" t="n">
-        <v>525</v>
+        <v>705</v>
       </c>
       <c r="AF11" t="n">
-        <v>10695</v>
+        <v>19267</v>
       </c>
       <c r="AG11" t="n">
-        <v>1800</v>
+        <v>4348</v>
       </c>
       <c r="AH11" t="n">
-        <v>25632</v>
+        <v>26559</v>
       </c>
       <c r="AI11" t="n">
-        <v>16270</v>
+        <v>16414</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>377</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>6402</v>
+        <v>10749</v>
       </c>
       <c r="E12" t="n">
-        <v>3210</v>
+        <v>4842</v>
       </c>
       <c r="F12" t="n">
-        <v>1096</v>
+        <v>1319</v>
       </c>
       <c r="G12" t="n">
-        <v>747</v>
+        <v>680</v>
       </c>
       <c r="H12" t="n">
-        <v>6003</v>
+        <v>6548</v>
       </c>
       <c r="I12" t="n">
-        <v>3500</v>
+        <v>3635</v>
       </c>
       <c r="J12" t="n">
-        <v>29916</v>
+        <v>42032</v>
       </c>
       <c r="K12" t="n">
-        <v>17600</v>
+        <v>23290</v>
       </c>
       <c r="L12" t="n">
-        <v>52163</v>
+        <v>109533</v>
       </c>
       <c r="M12" t="n">
-        <v>26529</v>
+        <v>47745</v>
       </c>
       <c r="N12" t="n">
-        <v>946466</v>
+        <v>1393595</v>
       </c>
       <c r="O12" t="n">
-        <v>482056</v>
+        <v>592337</v>
       </c>
       <c r="P12" t="n">
-        <v>629577</v>
+        <v>842598</v>
       </c>
       <c r="Q12" t="n">
-        <v>323041</v>
+        <v>347574</v>
       </c>
       <c r="R12" t="n">
-        <v>1388</v>
+        <v>6138</v>
       </c>
       <c r="S12" t="n">
-        <v>711</v>
+        <v>5037</v>
       </c>
       <c r="T12" t="n">
-        <v>16333</v>
+        <v>30462</v>
       </c>
       <c r="U12" t="n">
-        <v>8878</v>
+        <v>17185</v>
       </c>
       <c r="V12" t="n">
-        <v>1216</v>
+        <v>967</v>
       </c>
       <c r="W12" t="n">
-        <v>630</v>
+        <v>443</v>
       </c>
       <c r="X12" t="n">
-        <v>54878</v>
+        <v>78216</v>
       </c>
       <c r="Y12" t="n">
-        <v>23387</v>
+        <v>31202</v>
       </c>
       <c r="Z12" t="n">
-        <v>6904</v>
+        <v>10789</v>
       </c>
       <c r="AA12" t="n">
-        <v>3348</v>
+        <v>3645</v>
       </c>
       <c r="AB12" t="n">
-        <v>101985</v>
+        <v>206407</v>
       </c>
       <c r="AC12" t="n">
-        <v>50921</v>
+        <v>85363</v>
       </c>
       <c r="AD12" t="n">
-        <v>1201</v>
+        <v>1687</v>
       </c>
       <c r="AE12" t="n">
-        <v>725</v>
+        <v>774</v>
       </c>
       <c r="AF12" t="n">
-        <v>8087</v>
+        <v>16656</v>
       </c>
       <c r="AG12" t="n">
-        <v>1230</v>
+        <v>4260</v>
       </c>
       <c r="AH12" t="n">
-        <v>28940</v>
+        <v>29473</v>
       </c>
       <c r="AI12" t="n">
-        <v>17399</v>
+        <v>16649</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>5502</v>
+        <v>9350</v>
       </c>
       <c r="E13" t="n">
-        <v>3082</v>
+        <v>4119</v>
       </c>
       <c r="F13" t="n">
-        <v>1023</v>
+        <v>1252</v>
       </c>
       <c r="G13" t="n">
-        <v>688</v>
+        <v>635</v>
       </c>
       <c r="H13" t="n">
-        <v>4211</v>
+        <v>6402</v>
       </c>
       <c r="I13" t="n">
-        <v>2864</v>
+        <v>3893</v>
       </c>
       <c r="J13" t="n">
-        <v>32662</v>
+        <v>42500</v>
       </c>
       <c r="K13" t="n">
-        <v>19345</v>
+        <v>20949</v>
       </c>
       <c r="L13" t="n">
-        <v>62572</v>
+        <v>139493</v>
       </c>
       <c r="M13" t="n">
-        <v>31237</v>
+        <v>59791</v>
       </c>
       <c r="N13" t="n">
-        <v>1000489</v>
+        <v>1669556</v>
       </c>
       <c r="O13" t="n">
-        <v>501643</v>
+        <v>651432</v>
       </c>
       <c r="P13" t="n">
-        <v>644336</v>
+        <v>1054774</v>
       </c>
       <c r="Q13" t="n">
-        <v>322362</v>
+        <v>381349</v>
       </c>
       <c r="R13" t="n">
-        <v>1627</v>
+        <v>4840</v>
       </c>
       <c r="S13" t="n">
-        <v>720</v>
+        <v>3383</v>
       </c>
       <c r="T13" t="n">
-        <v>24844</v>
+        <v>39887</v>
       </c>
       <c r="U13" t="n">
-        <v>12650</v>
+        <v>17413</v>
       </c>
       <c r="V13" t="n">
-        <v>1065</v>
+        <v>993</v>
       </c>
       <c r="W13" t="n">
-        <v>570</v>
+        <v>470</v>
       </c>
       <c r="X13" t="n">
-        <v>57442</v>
+        <v>80332</v>
       </c>
       <c r="Y13" t="n">
-        <v>23978</v>
+        <v>32727</v>
       </c>
       <c r="Z13" t="n">
-        <v>5522</v>
+        <v>13192</v>
       </c>
       <c r="AA13" t="n">
-        <v>2993</v>
+        <v>4250</v>
       </c>
       <c r="AB13" t="n">
-        <v>120714</v>
+        <v>230763</v>
       </c>
       <c r="AC13" t="n">
-        <v>60253</v>
+        <v>100608</v>
       </c>
       <c r="AD13" t="n">
-        <v>1412</v>
+        <v>1866</v>
       </c>
       <c r="AE13" t="n">
-        <v>714</v>
+        <v>909</v>
       </c>
       <c r="AF13" t="n">
-        <v>6073</v>
+        <v>18301</v>
       </c>
       <c r="AG13" t="n">
-        <v>1238</v>
+        <v>6367</v>
       </c>
       <c r="AH13" t="n">
-        <v>31322</v>
+        <v>25594</v>
       </c>
       <c r="AI13" t="n">
-        <v>18881</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>73</v>
-      </c>
-      <c r="C14" t="n">
-        <v>43</v>
-      </c>
-      <c r="D14" t="n">
-        <v>6821</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3379</v>
-      </c>
-      <c r="F14" t="n">
-        <v>881</v>
-      </c>
-      <c r="G14" t="n">
-        <v>555</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4603</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2886</v>
-      </c>
-      <c r="J14" t="n">
-        <v>31061</v>
-      </c>
-      <c r="K14" t="n">
-        <v>18414</v>
-      </c>
-      <c r="L14" t="n">
-        <v>75820</v>
-      </c>
-      <c r="M14" t="n">
-        <v>37674</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1071780</v>
-      </c>
-      <c r="O14" t="n">
-        <v>536227</v>
-      </c>
-      <c r="P14" t="n">
-        <v>675930</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>341139</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1646</v>
-      </c>
-      <c r="S14" t="n">
-        <v>656</v>
-      </c>
-      <c r="T14" t="n">
-        <v>25693</v>
-      </c>
-      <c r="U14" t="n">
-        <v>12318</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1044</v>
-      </c>
-      <c r="W14" t="n">
-        <v>597</v>
-      </c>
-      <c r="X14" t="n">
-        <v>63237</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>27182</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>6313</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>3516</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>133605</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>65747</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1344</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>622</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>13106</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>2679</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>30603</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>18820</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>284</v>
-      </c>
-      <c r="C15" t="n">
-        <v>177</v>
-      </c>
-      <c r="D15" t="n">
-        <v>6861</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3063</v>
-      </c>
-      <c r="F15" t="n">
-        <v>912</v>
-      </c>
-      <c r="G15" t="n">
-        <v>502</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5886</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3381</v>
-      </c>
-      <c r="J15" t="n">
-        <v>35741</v>
-      </c>
-      <c r="K15" t="n">
-        <v>20449</v>
-      </c>
-      <c r="L15" t="n">
-        <v>82808</v>
-      </c>
-      <c r="M15" t="n">
-        <v>39668</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1169275</v>
-      </c>
-      <c r="O15" t="n">
-        <v>547718</v>
-      </c>
-      <c r="P15" t="n">
-        <v>721406</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>335859</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1167</v>
-      </c>
-      <c r="S15" t="n">
-        <v>365</v>
-      </c>
-      <c r="T15" t="n">
-        <v>36129</v>
-      </c>
-      <c r="U15" t="n">
-        <v>17881</v>
-      </c>
-      <c r="V15" t="n">
-        <v>802</v>
-      </c>
-      <c r="W15" t="n">
-        <v>527</v>
-      </c>
-      <c r="X15" t="n">
-        <v>68554</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>27836</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>11169</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>3285</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>154830</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>74504</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1280</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>606</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>15748</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>3760</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>25698</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>15855</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>77</v>
-      </c>
-      <c r="C16" t="n">
-        <v>45</v>
-      </c>
-      <c r="D16" t="n">
-        <v>9183</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4518</v>
-      </c>
-      <c r="F16" t="n">
-        <v>997</v>
-      </c>
-      <c r="G16" t="n">
-        <v>548</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5368</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3392</v>
-      </c>
-      <c r="J16" t="n">
-        <v>38105</v>
-      </c>
-      <c r="K16" t="n">
-        <v>21305</v>
-      </c>
-      <c r="L16" t="n">
-        <v>98094</v>
-      </c>
-      <c r="M16" t="n">
-        <v>44028</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1295721</v>
-      </c>
-      <c r="O16" t="n">
-        <v>567725</v>
-      </c>
-      <c r="P16" t="n">
-        <v>789717</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>335026</v>
-      </c>
-      <c r="R16" t="n">
-        <v>638</v>
-      </c>
-      <c r="S16" t="n">
-        <v>339</v>
-      </c>
-      <c r="T16" t="n">
-        <v>34523</v>
-      </c>
-      <c r="U16" t="n">
-        <v>18279</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1139</v>
-      </c>
-      <c r="W16" t="n">
-        <v>629</v>
-      </c>
-      <c r="X16" t="n">
-        <v>76249</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>32361</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>13701</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>3991</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>180585</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>81797</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1519</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>705</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>19267</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>4348</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>26559</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>16414</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>21</v>
-      </c>
-      <c r="C17" t="n">
-        <v>13</v>
-      </c>
-      <c r="D17" t="n">
-        <v>10749</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4842</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1319</v>
-      </c>
-      <c r="G17" t="n">
-        <v>680</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6548</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3635</v>
-      </c>
-      <c r="J17" t="n">
-        <v>42032</v>
-      </c>
-      <c r="K17" t="n">
-        <v>23290</v>
-      </c>
-      <c r="L17" t="n">
-        <v>109533</v>
-      </c>
-      <c r="M17" t="n">
-        <v>47745</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1393595</v>
-      </c>
-      <c r="O17" t="n">
-        <v>592337</v>
-      </c>
-      <c r="P17" t="n">
-        <v>842598</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>347574</v>
-      </c>
-      <c r="R17" t="n">
-        <v>6138</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5037</v>
-      </c>
-      <c r="T17" t="n">
-        <v>30462</v>
-      </c>
-      <c r="U17" t="n">
-        <v>17185</v>
-      </c>
-      <c r="V17" t="n">
-        <v>967</v>
-      </c>
-      <c r="W17" t="n">
-        <v>443</v>
-      </c>
-      <c r="X17" t="n">
-        <v>78216</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>31202</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>10789</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>3645</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>206407</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>85363</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>1687</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>774</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>16656</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>4260</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>29473</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>16649</v>
+        <v>14558</v>
       </c>
     </row>
   </sheetData>
